--- a/biology/Botanique/Mniaceae/Mniaceae.xlsx
+++ b/biology/Botanique/Mniaceae/Mniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Mniaceae (les Mniacées) regroupe des mousses de l'ordre des Bryales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 juin 2013) :
 genre Cinclidium Sw. (à ne pas confondre avec le genre d'oiseaux passereaux Cinclidium Blyth, 1842)
 genre Cyrtomnium
 genre Leucolepis
@@ -523,7 +537,7 @@
 genre Pseudobryum
 genre Rhizomnium
 genre Trachycystis
-Selon ITIS      (17 février 2016)[2] :
+Selon ITIS      (17 février 2016) :
 genre Cinclidium Sw. in Schrad.
 genre Cyrtomnium Holmen
 genre Leucolepis Lindb.
@@ -532,7 +546,7 @@
 genre Pseudobryum (Kindb.) T. Kop.
 genre Rhizomnium (Broth.) T. Kop.
 genre Trachycystis Lindb.
-Selon NCBI  (9 juin 2013)[3] :
+Selon NCBI  (9 juin 2013) :
 genre Cinclidium
 genre Cyrtomnium
 genre Epipterygium
@@ -542,12 +556,12 @@
 genre Mnium
 genre Orthomnion
 genre Plagiomnium
-genre Pohlia (à ne pas confondre avec un genre éteint de foraminifères Pohlia Conil &amp; Lys, 1977 †[4] et parfois aussi avec le genre de batraciens Lithobates, syn. de Pohlia Steindachner, 1867).
+genre Pohlia (à ne pas confondre avec un genre éteint de foraminifères Pohlia Conil &amp; Lys, 1977 † et parfois aussi avec le genre de batraciens Lithobates, syn. de Pohlia Steindachner, 1867).
 genre Pseudobryum
 genre Rhizomnium
 genre Schizymenium
 genre Trachycystis
-Selon Tropicos                                           (9 juin 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 genre Cinclidium Sw.
 genre Cyrtomnium Holmen
 genre Flagellomnium Lazarenko
